--- a/data/trans_dic/IP36A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP36A-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 25,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,45</t>
+          <t>0,0; 16,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 12,59</t>
+          <t>2,71; 12,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 14,93</t>
+          <t>4,27; 14,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 13,99</t>
+          <t>3,09; 14,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,72</t>
+          <t>0,0; 50,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 12,27</t>
+          <t>2,89; 13,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 11,52</t>
+          <t>1,05; 10,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 11,18</t>
+          <t>1,11; 11,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,44</t>
+          <t>0,0; 58,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,17</t>
+          <t>3,57; 10,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 11,25</t>
+          <t>4,08; 11,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,82</t>
+          <t>3,28; 10,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,39</t>
+          <t>0,0; 48,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,37 +1004,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,98</t>
+          <t>3,91; 12,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 15,1</t>
+          <t>6,06; 14,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 15,48</t>
+          <t>6,38; 15,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 58,94</t>
+          <t>5,96; 57,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 8,94</t>
+          <t>1,46; 8,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 18,01</t>
+          <t>8,41; 17,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 15,35</t>
+          <t>6,19; 15,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,29 +1044,29 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,36</t>
+          <t>3,76; 9,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 14,54</t>
+          <t>8,43; 14,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 13,88</t>
+          <t>7,7; 14,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 38,36</t>
+          <t>3,51; 39,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 14,79</t>
+          <t>4,19; 14,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 18,31</t>
+          <t>7,0; 18,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 22,28</t>
+          <t>8,67; 22,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,04</t>
+          <t>0,0; 70,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 16,15</t>
+          <t>4,89; 16,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 18,22</t>
+          <t>6,47; 17,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 16,49</t>
+          <t>5,54; 16,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,01</t>
+          <t>0,0; 39,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 13,07</t>
+          <t>5,28; 13,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 16,04</t>
+          <t>8,0; 15,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 17,33</t>
+          <t>8,62; 17,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,3</t>
+          <t>0,0; 34,72</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 13,27</t>
+          <t>2,93; 13,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 17,06</t>
+          <t>6,92; 17,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,46; 26,93</t>
+          <t>11,59; 26,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 19,31</t>
+          <t>6,1; 18,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 15,89</t>
+          <t>5,6; 16,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 14,25</t>
+          <t>5,01; 14,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,46</t>
+          <t>0,0; 60,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 13,82</t>
+          <t>5,58; 14,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 14,78</t>
+          <t>7,54; 14,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,7</t>
+          <t>9,49; 18,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,36; 65,83</t>
+          <t>12,03; 66,32</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,56</t>
+          <t>4,84; 9,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,93</t>
+          <t>7,76; 12,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,32</t>
+          <t>9,64; 15,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,75; 46,92</t>
+          <t>12,18; 46,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,0</t>
+          <t>5,14; 10,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,69</t>
+          <t>7,74; 12,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,96</t>
+          <t>6,32; 10,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 30,64</t>
+          <t>5,04; 30,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 9,15</t>
+          <t>5,76; 8,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,99</t>
+          <t>8,46; 12,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,67; 12,53</t>
+          <t>8,65; 12,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,59; 32,31</t>
+          <t>11,6; 33,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP36A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP36A-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>15,18%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>2,06; 11,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>1,76; 10,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,91; 9,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,31; 29,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>1,75; 10,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,41</t>
+          <t>4,21; 13,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>2,72; 11,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>6,83; 24,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>2,7; 8,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,38</t>
+          <t>3,55; 9,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>2,73; 8,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>9,09; 22,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>13,16%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 12,52</t>
+          <t>1,44; 8,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 14,79</t>
+          <t>8,08; 17,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 14,03</t>
+          <t>6,38; 15,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,43</t>
+          <t>4,28; 16,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,4</t>
+          <t>4,31; 13,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 10,83</t>
+          <t>6,15; 14,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 11,29</t>
+          <t>6,72; 16,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,85</t>
+          <t>9,91; 25,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 10,74</t>
+          <t>3,39; 9,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,39</t>
+          <t>8,27; 14,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 10,09</t>
+          <t>7,49; 13,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,41</t>
+          <t>8,89; 19,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>17,17%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 12,34</t>
+          <t>4,48; 16,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 14,97</t>
+          <t>7,1; 18,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 15,66</t>
+          <t>5,74; 16,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 57,77</t>
+          <t>5,79; 27,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,51</t>
+          <t>3,71; 14,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 17,9</t>
+          <t>6,92; 18,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 15,55</t>
+          <t>8,78; 22,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>11,58; 29,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,21</t>
+          <t>5,44; 13,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 14,54</t>
+          <t>8,49; 16,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 14,03</t>
+          <t>8,43; 17,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 39,88</t>
+          <t>9,13; 24,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>24,37%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 14,54</t>
+          <t>5,48; 20,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 18,49</t>
+          <t>5,86; 15,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 22,45</t>
+          <t>4,96; 14,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,96</t>
+          <t>14,57; 34,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 16,34</t>
+          <t>2,89; 13,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 17,87</t>
+          <t>6,36; 16,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 16,85</t>
+          <t>12,11; 26,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,85</t>
+          <t>16,39; 35,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 13,07</t>
+          <t>5,29; 13,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 15,88</t>
+          <t>7,49; 14,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,62; 17,4</t>
+          <t>9,03; 17,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,72</t>
+          <t>17,72; 31,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>17,26%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 13,26</t>
+          <t>5,2; 10,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 17,85</t>
+          <t>7,89; 12,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 26,47</t>
+          <t>6,21; 11,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>10,3; 21,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 18,85</t>
+          <t>5,17; 9,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 16,72</t>
+          <t>7,96; 12,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 14,48</t>
+          <t>9,59; 15,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,44</t>
+          <t>14,33; 23,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 14,16</t>
+          <t>5,78; 9,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 14,97</t>
+          <t>8,41; 12,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,49; 18,01</t>
+          <t>8,78; 12,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,03; 66,32</t>
+          <t>13,56; 20,82</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,01%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,11%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,27%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>26,23%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,46%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>14,83%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>10,07%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>10,34%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>19,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 9,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 12,78</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,64; 15,14</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>12,18; 46,58</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,14; 10,17</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 12,69</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,32; 10,99</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 30,01</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 8,95</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>8,46; 12,02</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>8,65; 12,49</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>11,6; 33,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
